--- a/notes/1802-Mini-Processor-BOM.xlsx
+++ b/notes/1802-Mini-Processor-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E763FFB5-A0C1-4C03-BD67-AFC2E7B6FFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9957FE-460A-4EF0-B26C-5A5E46A560CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{41E1A1E5-C1FC-4043-9E65-8CBBFB1D39B7}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Sullins</t>
   </si>
   <si>
-    <t>PREC025DAAN-RC</t>
-  </si>
-  <si>
     <t>TI</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Virtually any of the many 555 timer clones can be subtituted, with CMOS parts preferred. The part numbers shown are not the only possible substitutes.</t>
+  </si>
+  <si>
+    <t>PREC040SAAN-RC</t>
   </si>
 </sst>
 </file>
@@ -677,10 +677,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1020,60 +1020,60 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="A3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="18"/>
       <c r="G10" s="18"/>
@@ -1083,32 +1083,32 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="F12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="H12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1130,19 +1130,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H15" s="11">
         <v>5.46</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>29</v>
@@ -1193,16 +1193,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>29</v>
@@ -1229,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>21</v>
@@ -1262,13 +1262,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>21</v>
@@ -1295,19 +1295,19 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>0.66</v>
@@ -1328,19 +1328,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>0.66</v>
@@ -1361,13 +1361,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>21</v>
@@ -1391,16 +1391,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>21</v>
@@ -1427,19 +1427,19 @@
         <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="H24" s="7">
         <v>2.1800000000000002</v>
@@ -1476,16 +1476,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>29</v>
@@ -1509,16 +1509,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>29</v>
@@ -1542,16 +1542,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>29</v>
@@ -1575,16 +1575,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>29</v>
@@ -1608,22 +1608,22 @@
         <v>3</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="7">
         <v>0.1</v>
@@ -1641,22 +1641,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="7">
         <v>0.1</v>
@@ -1674,22 +1674,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="7">
         <v>0.1</v>
@@ -1707,22 +1707,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="H34" s="7">
         <v>0.1</v>
@@ -1740,22 +1740,22 @@
         <v>10</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="H35" s="7">
         <v>0.1</v>
@@ -1773,22 +1773,22 @@
         <v>1</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="7">
         <v>0.1</v>
@@ -1809,19 +1809,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H37" s="7">
         <v>0.1</v>
@@ -1842,19 +1842,19 @@
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="F38" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="7">
         <v>0.1</v>
@@ -1875,13 +1875,13 @@
         <v>16</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>29</v>
@@ -1908,19 +1908,19 @@
         <v>15</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="H40" s="11">
         <v>0.8</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1957,14 +1957,14 @@
         <v>1</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>21</v>
@@ -1989,14 +1989,14 @@
         <v>8</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>21</v>
@@ -2021,14 +2021,14 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>21</v>
@@ -2053,14 +2053,14 @@
         <v>2</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>21</v>
@@ -2091,7 +2091,7 @@
         <v>40</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>21</v>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>37</v>
@@ -2145,20 +2145,20 @@
         <v>1</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="F49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H49" s="11">
         <v>2.54</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2199,10 +2199,10 @@
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>21</v>
@@ -2230,10 +2230,10 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>21</v>
@@ -2260,10 +2260,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>21</v>
@@ -2290,10 +2290,10 @@
         <v>36</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>21</v>
@@ -2320,10 +2320,10 @@
         <v>10</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>21</v>
@@ -2351,10 +2351,10 @@
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>21</v>
@@ -2382,10 +2382,10 @@
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>21</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2432,10 +2432,10 @@
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>29</v>
@@ -2459,14 +2459,14 @@
         <v>4</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>29</v>
@@ -2490,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H63" s="7">
         <f>1.95</f>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H65" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J65" s="7">
         <f>SUM(J15:J63)</f>
